--- a/Jobsites.xlsx
+++ b/Jobsites.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoj\OneDrive\Documents\UiPath\Website Jobscraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA6C6BD-6138-4740-AEEB-527FFECF9429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDE6AD5-0FD4-4B00-B0D1-50B20E7CE49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{56ADC548-D1C4-41F2-A325-6780B57D79B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Jobsites" sheetId="1" r:id="rId1"/>
+    <sheet name="Config" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="289">
   <si>
     <t>Jobsite</t>
   </si>
@@ -894,6 +895,15 @@
   </si>
   <si>
     <t>https://sharedpro.in/</t>
+  </si>
+  <si>
+    <t>Search Term</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>RPA</t>
   </si>
 </sst>
 </file>
@@ -2432,4 +2442,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136F3F89-C5CA-4E02-B41C-614D3D6B250C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>